--- a/data/xls/2012-09-01/20121214-EER-R11-Web-UCBPharma.xlsx
+++ b/data/xls/2012-09-01/20121214-EER-R11-Web-UCBPharma.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23117"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="20" windowWidth="42640" windowHeight="23020"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -19,52 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="377">
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Page 1 of 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Summary  of Events Sponsored by Member Companies: Reporting Period Apr 12 - Sept 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Company  Name:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>UCB Pharma</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Number of Events Held:</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="370">
   <si>
     <r>
       <rPr>
@@ -4082,57 +4037,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Professional status of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>attendees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total cost of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>hospitality</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Number of attendees
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>– number only</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
@@ -7570,140 +7474,141 @@
   <si>
     <r>
       <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total Number of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>events reported</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total Hours of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Education</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total CPD/CME or
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>other points</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Total Number of
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Attendees</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>209</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2269</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>92,572.63</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>288,038.51</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Description of Function including the duration
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>of educational content involved</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Venue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Professional status of attendees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Hospitality provided</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Total cost of
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Hospitality</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Total number of attendees
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(number)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Total Cost of
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Hospitality</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Total Cost of Function</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>209</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2269</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>92,572.63</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>288,038.51</t>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Function</t>
     </r>
   </si>
 </sst>
@@ -7711,7 +7616,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7745,8 +7650,12 @@
       <name val="Times New Roman"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7763,8 +7672,13 @@
         <fgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -7802,17 +7716,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -7822,37 +7725,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -7931,7 +7803,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7950,23 +7822,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -8334,10 +8194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H118" sqref="H1:AH1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -8351,2677 +8211,2422 @@
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14" customHeight="1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" ht="29" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14" customHeight="1">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:7" ht="130" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12" customHeight="1">
+    <row r="3" spans="1:7" ht="108" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+    <row r="4" spans="1:7" ht="106" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1">
+    <row r="5" spans="1:7" ht="256" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="85" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="288" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>12</v>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="130" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
+    <row r="8" spans="1:7" ht="186" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="108" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>24</v>
+    <row r="9" spans="1:7" ht="85" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="106" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>28</v>
+    <row r="10" spans="1:7" ht="211" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="256" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>35</v>
+    <row r="11" spans="1:7" ht="189" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="9" t="s">
+    <row r="12" spans="1:7" ht="197" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>12</v>
+      <c r="E12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="288" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>41</v>
+    <row r="13" spans="1:7" ht="201" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="186" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>45</v>
+    <row r="14" spans="1:7" ht="203" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="85" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="211" customHeight="1">
+    <row r="15" spans="1:7" ht="208" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="217" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="85" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="202" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="85" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="207" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="220" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="241" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="85" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="217" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="207" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="211" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="85" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="102" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="165" customHeight="1">
+      <c r="A29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>50</v>
+      <c r="G29" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="189" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>55</v>
+    <row r="30" spans="1:7" ht="203" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="197" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="4" t="s">
+    <row r="31" spans="1:7" ht="202" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="85" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="132" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="110" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>60</v>
+      <c r="G34" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="85" customHeight="1">
-      <c r="A18" s="9" t="s">
+    <row r="35" spans="1:7" ht="200" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="99" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="116" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="85" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="G38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="9" t="s">
+    </row>
+    <row r="39" spans="1:7" ht="90" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="85" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="96" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
+      <c r="E41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="201" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="203" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="208" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="85" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="9" t="s">
+    <row r="42" spans="1:7" ht="226" customHeight="1">
+      <c r="A42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="217" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="85" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="202" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="85" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="207" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="220" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="241" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="85" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="217" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="207" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="211" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="85" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="102" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="165" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="203" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="202" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="85" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="132" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="110" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="200" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="99" customHeight="1">
+    <row r="43" spans="1:7" ht="100" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="116" customHeight="1">
+    <row r="44" spans="1:7" ht="102" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="85" customHeight="1">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="G45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="9" t="s">
+    </row>
+    <row r="46" spans="1:7" ht="226" customHeight="1">
+      <c r="A46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="215" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="85" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="94" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="225" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="207" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="229" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="213" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="85" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="213" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="211" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="162" customHeight="1">
+      <c r="A57" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1">
+      <c r="A58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="277" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="123" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="128" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="58" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="148" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="362" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="58" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="125" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="195" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="190" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="9" t="s">
+      <c r="G68" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="92" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="58" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="383" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="245" customHeight="1">
+      <c r="A72" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>12</v>
+      <c r="D72" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="90" customHeight="1">
-      <c r="A46" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>147</v>
+    <row r="73" spans="1:7" ht="58" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="85" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="9" t="s">
+    <row r="74" spans="1:7" ht="286" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="342" customHeight="1">
+      <c r="A75" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="58" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="9" t="s">
+    </row>
+    <row r="77" spans="1:7" ht="233" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="244" customHeight="1">
+      <c r="A78" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="96" customHeight="1">
-      <c r="A48" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="226" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="100" customHeight="1">
-      <c r="A50" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="102" customHeight="1">
-      <c r="A51" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="85" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="226" customHeight="1">
-      <c r="A53" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="215" customHeight="1">
-      <c r="A54" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="85" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="94" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="225" customHeight="1">
-      <c r="A57" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="207" customHeight="1">
-      <c r="A58" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="85" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="229" customHeight="1">
-      <c r="A60" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="213" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="85" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="213" customHeight="1">
-      <c r="A63" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="211" customHeight="1">
-      <c r="A64" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="162" customHeight="1">
-      <c r="A65" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1">
-      <c r="A66" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="86" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="277" customHeight="1">
-      <c r="A68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="123" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="128" customHeight="1">
-      <c r="A70" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="58" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="148" customHeight="1">
-      <c r="A72" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="362" customHeight="1">
-      <c r="A73" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="58" customHeight="1">
-      <c r="A74" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="125" customHeight="1">
-      <c r="A75" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="195" customHeight="1">
-      <c r="A76" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="190" customHeight="1">
-      <c r="A77" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="92" customHeight="1">
-      <c r="A78" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="G78" s="4" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="58" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B79" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="9" t="s">
+    </row>
+    <row r="80" spans="1:7" ht="227" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="105" customHeight="1">
+      <c r="A81" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="251" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>12</v>
+      <c r="G82" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="383" customHeight="1">
-      <c r="A80" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D80" s="4" t="s">
+    <row r="83" spans="1:7" ht="234" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>251</v>
+      <c r="F83" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="245" customHeight="1">
-      <c r="A81" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>256</v>
+    <row r="84" spans="1:7" ht="218" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="58" customHeight="1">
-      <c r="A82" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B82" s="9" t="s">
+    <row r="85" spans="1:7" ht="99" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="99" customHeight="1">
+      <c r="A86" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="266" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="104" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="58" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="83" spans="1:7" ht="286" customHeight="1">
-      <c r="A83" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>260</v>
+    <row r="90" spans="1:7" ht="243" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="342" customHeight="1">
-      <c r="A84" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>232</v>
+    <row r="91" spans="1:7" ht="230" customHeight="1">
+      <c r="A91" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="58" customHeight="1">
-      <c r="A85" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B85" s="9" t="s">
+    <row r="92" spans="1:7" ht="150" customHeight="1">
+      <c r="A92" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="58" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="86" spans="1:7" ht="233" customHeight="1">
-      <c r="A86" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>270</v>
+    <row r="94" spans="1:7" ht="99" customHeight="1">
+      <c r="A94" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="244" customHeight="1">
-      <c r="A87" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>274</v>
+    <row r="95" spans="1:7" ht="86" customHeight="1">
+      <c r="A95" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="58" customHeight="1">
-      <c r="A88" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B88" s="9" t="s">
+    <row r="96" spans="1:7" ht="227" customHeight="1">
+      <c r="A96" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="85" customHeight="1">
+      <c r="A97" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="89" spans="1:7" ht="227" customHeight="1">
-      <c r="A89" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>278</v>
+    <row r="98" spans="1:7" ht="247" customHeight="1">
+      <c r="A98" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="105" customHeight="1">
-      <c r="A90" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>282</v>
+    <row r="99" spans="1:7" ht="245" customHeight="1">
+      <c r="A99" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>333</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="251" customHeight="1">
-      <c r="A91" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>220</v>
+    <row r="100" spans="1:7" ht="221" customHeight="1">
+      <c r="A100" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>337</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="58" customHeight="1">
-      <c r="A92" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>12</v>
+    <row r="101" spans="1:7" ht="290" customHeight="1">
+      <c r="A101" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="234" customHeight="1">
-      <c r="A93" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>131</v>
+    <row r="102" spans="1:7" ht="110" customHeight="1">
+      <c r="A102" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="218" customHeight="1">
-      <c r="A94" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>292</v>
+    <row r="103" spans="1:7" ht="132" customHeight="1">
+      <c r="A103" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="99" customHeight="1">
-      <c r="A95" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>294</v>
+    <row r="104" spans="1:7" ht="226" customHeight="1">
+      <c r="A104" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="58" customHeight="1">
-      <c r="A96" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>12</v>
+    <row r="105" spans="1:7" ht="190" customHeight="1">
+      <c r="A105" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="99" customHeight="1">
-      <c r="A97" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="266" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="104" customHeight="1">
-      <c r="A99" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="58" customHeight="1">
-      <c r="A100" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="243" customHeight="1">
-      <c r="A101" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="230" customHeight="1">
-      <c r="A102" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="150" customHeight="1">
-      <c r="A103" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="58" customHeight="1">
-      <c r="A104" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="99" customHeight="1">
-      <c r="A105" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="86" customHeight="1">
-      <c r="A106" s="1" t="s">
-        <v>325</v>
+    <row r="106" spans="1:7" ht="12" customHeight="1">
+      <c r="A106" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>126</v>
+        <v>360</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>329</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="F106" s="5"/>
       <c r="G106" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="227" customHeight="1">
-      <c r="A107" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="85" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="247" customHeight="1">
-      <c r="A109" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="245" customHeight="1">
-      <c r="A110" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="85" customHeight="1">
-      <c r="A111" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="221" customHeight="1">
-      <c r="A112" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="290" customHeight="1">
-      <c r="A113" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="110" customHeight="1">
-      <c r="A114" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="85" customHeight="1">
-      <c r="A115" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="132" customHeight="1">
-      <c r="A116" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="226" customHeight="1">
-      <c r="A117" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="190" customHeight="1">
-      <c r="A118" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="14" customHeight="1">
-      <c r="A119" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="86" customHeight="1">
-      <c r="A120" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="F120" s="10"/>
-      <c r="G120" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="12" customHeight="1">
-      <c r="A121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F121" s="6"/>
-      <c r="G121" s="4" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>
